--- a/test_data/input.xlsx
+++ b/test_data/input.xlsx
@@ -4,46 +4,33 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="17385" windowHeight="6540" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="login" sheetId="1" r:id="rId1"/>
+    <sheet name="TestValidLogin" sheetId="1" r:id="rId1"/>
+    <sheet name="TestInvalidLogin" sheetId="2" r:id="rId2"/>
+    <sheet name="TestValidLoginLogout" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="5">
   <si>
-    <t>username</t>
+    <t>admin</t>
   </si>
   <si>
-    <t>password</t>
+    <t>Username</t>
   </si>
   <si>
-    <t>expected_title</t>
+    <t>Password</t>
   </si>
   <si>
-    <t>actual_title</t>
+    <t>manager1</t>
   </si>
   <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>gyanquest22@gmail.com</t>
-  </si>
-  <si>
-    <t>4a3ue7Ph</t>
-  </si>
-  <si>
-    <t>actiTIME - Enter Time-Track</t>
-  </si>
-  <si>
-    <t>browser</t>
-  </si>
-  <si>
-    <t>chrome</t>
+    <t>manager</t>
   </si>
 </sst>
 </file>
@@ -378,96 +365,107 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B4" r:id="rId2"/>
-    <hyperlink ref="B3" r:id="rId3"/>
+    <hyperlink ref="A2" r:id="rId1" display="gyanquest22@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="gyanquest22@gmail.com"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="gyanquest22@gmail.com"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>